--- a/src/output.xlsx
+++ b/src/output.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:B101"/>
+  <dimension ref="A2:B107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1621,6 +1621,78 @@
         </is>
       </c>
     </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>6971064236152</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>22,4</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>6971064236657</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>19,4</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>6971064230495</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>24,4</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>6971064230709</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>79,4</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>3000000016268</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>1,08</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>3000000041543</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>1,85</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/src/output.xlsx
+++ b/src/output.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:B107"/>
+  <dimension ref="A2:B232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,31 +424,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>3000000160763</t>
+          <t>3000000160749</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>25,4</t>
+          <t>17,1</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3000000018224</t>
+          <t>3000000018392</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>85,65</t>
+          <t>50,55</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3000000021521</t>
+          <t>3000000020838</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -460,24 +460,24 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3000000018873</t>
+          <t>3000000032572</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>10,65</t>
+          <t>10,25</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3000000060629</t>
+          <t>3000000025567</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1,18</t>
+          <t>1,45</t>
         </is>
       </c>
     </row>
@@ -496,24 +496,24 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3000000151235</t>
+          <t>3000000151198</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>7,8</t>
+          <t>8,68</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>3000000021170</t>
+          <t>3000000057209</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4,45</t>
+          <t>3,65</t>
         </is>
       </c>
     </row>
@@ -568,367 +568,367 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>3000000045459</t>
+          <t>3000000045640</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3,8</t>
+          <t>1,95</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>3000000045398</t>
+          <t>3000000056295</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2,45</t>
+          <t>3,8</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3000000046173</t>
+          <t>3000000045459</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>5,35</t>
+          <t>3,8</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>3000000045527</t>
+          <t>3000000046067</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>4,65</t>
+          <t>4,8</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3000000045497</t>
+          <t>3000000045367</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>4,65</t>
+          <t>4,83</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3000000056318</t>
+          <t>3000000045794</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>3,13</t>
+          <t>4,73</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>3000000021095</t>
+          <t>3000000045398</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>3,45</t>
+          <t>2,45</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>3000000021088</t>
+          <t>3000000045930</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>3,45</t>
+          <t>3,73</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>3000000021101</t>
+          <t>3000000056318</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>3,45</t>
+          <t>3,13</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>3000000026755</t>
+          <t>3000000020814</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>73,4</t>
+          <t>3,8</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>3000000026762</t>
+          <t>3000000017838</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>68,4</t>
+          <t>3,8</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>3000000026779</t>
+          <t>3000000020821</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>58,9</t>
+          <t>3,8</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>3000000021149</t>
+          <t>3000000026724</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1,08</t>
+          <t>58,9</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>3000000106358</t>
+          <t>3000000026731</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>47,15</t>
+          <t>68,9</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>3000000037997</t>
+          <t>3000000026748</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>30,65</t>
+          <t>68,15</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>3000000024539</t>
+          <t>3000000021156</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>57,65</t>
+          <t>2,45</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>3000000032459</t>
+          <t>3000000029756</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2,43</t>
+          <t>28,25</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>3000000020951</t>
+          <t>3000000037980</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1,85</t>
+          <t>18,55</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>3000000020944</t>
+          <t>3000000143650</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2,8</t>
+          <t>41,1</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>3000000020968</t>
+          <t>3000000021187</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1,85</t>
+          <t>0,98</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>3000000055601</t>
+          <t>3000000020982</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>3,83</t>
+          <t>2,8</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>3000000075708</t>
+          <t>3000000020975</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>1,85</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>3000000022184</t>
+          <t>3000000020999</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1,45</t>
+          <t>2,8</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>3000000021194</t>
+          <t>3000000055595</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1,85</t>
+          <t>2,15</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>3000000021217</t>
+          <t>3000000075708</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>3,8</t>
+          <t>0,78</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>3000000030943</t>
+          <t>3000000021200</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>3,65</t>
+          <t>1,85</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>3000000021071</t>
+          <t>3000000021224</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1,65</t>
+          <t>4,8</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>3000000021125</t>
+          <t>3000000060612</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2,45</t>
+          <t>5,8</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>3000000021231</t>
+          <t>3000000021071</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2,85</t>
+          <t>1,65</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>3000000045978</t>
+          <t>3000000021132</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>3,43</t>
+          <t>2,8</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>3000000046142</t>
+          <t>3000000021248</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -940,67 +940,67 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>3000000046036</t>
+          <t>3000000045978</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1,95</t>
+          <t>3,43</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>3000000069912</t>
+          <t>3000000045725</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>3,43</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>3000000077818</t>
+          <t>3000000046142</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2,4</t>
+          <t>1,65</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>3000000020913</t>
+          <t>3000000046036</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>1,95</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>3000000020715</t>
+          <t>3000000020845</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>0,8</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>3000000020937</t>
+          <t>3000000094754</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1012,175 +1012,175 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>3000000021255</t>
+          <t>3000000077818</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2,83</t>
+          <t>2,4</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>3000000137499</t>
+          <t>3000000020623</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>0,88</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>3000000039458</t>
+          <t>3000000020630</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>7,65</t>
+          <t>0,98</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>3000000039434</t>
+          <t>3000000020647</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>9,65</t>
+          <t>0,78</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>3000000039441</t>
+          <t>3000000017852</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>9,65</t>
+          <t>3,4</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>3000000084083</t>
+          <t>3000000137499</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>26,65</t>
+          <t>0,78</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>3000000058152</t>
+          <t>3000000039465</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2,25</t>
+          <t>7,65</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>3708077031503</t>
+          <t>3000000039410</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1,45</t>
+          <t>7,65</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>6971064232024</t>
+          <t>3000000039618</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>11,65</t>
+          <t>7,65</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>6971064234028</t>
+          <t>3000000084083</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>12,65</t>
+          <t>26,65</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>3000000196922</t>
+          <t>3000000058152</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2,85</t>
+          <t>2,25</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>3000000196939</t>
+          <t>3708077031503</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2,85</t>
+          <t>1,45</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>3000000196946</t>
+          <t>6971064232024</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2,85</t>
+          <t>11,65</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>3000000196953</t>
+          <t>6971064234028</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2,85</t>
+          <t>12,65</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>3000000196960</t>
+          <t>3000000196786</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1192,7 +1192,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>3000000196977</t>
+          <t>3000000196793</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1204,7 +1204,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>3000000196984</t>
+          <t>3000000196809</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1216,55 +1216,55 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>3000000020364</t>
+          <t>3000000196816</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>3,9</t>
+          <t>2,85</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>6953156281455</t>
+          <t>3000000196823</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>4,5</t>
+          <t>2,85</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>3000000140673</t>
+          <t>3000000196830</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2,45</t>
+          <t>2,85</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>3000000140666</t>
+          <t>3000000196847</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2,45</t>
+          <t>2,85</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>3000000140680</t>
+          <t>3000000140659</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1276,67 +1276,67 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>3000000032954</t>
+          <t>3000000140611</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2,43</t>
+          <t>2,45</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>3000000188491</t>
+          <t>3000000140604</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2,43</t>
+          <t>2,45</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>3000000032930</t>
+          <t>3000000140642</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2,43</t>
+          <t>2,45</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>3000000032916</t>
+          <t>3000000140635</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2,43</t>
+          <t>2,45</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>3000000188507</t>
+          <t>3000000140628</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2,43</t>
+          <t>2,45</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>3000000188521</t>
+          <t>3000000032886</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1348,7 +1348,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>3000000032909</t>
+          <t>3000000032879</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1360,7 +1360,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>3000000188514</t>
+          <t>3000000188408</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1372,7 +1372,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>3000000188477</t>
+          <t>3000000032824</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -1384,7 +1384,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>3000000188583</t>
+          <t>3000000188415</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -1396,7 +1396,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>3000000188484</t>
+          <t>3000000188422</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -1408,7 +1408,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>3000000032923</t>
+          <t>3000000032831</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -1420,7 +1420,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>3000000032893</t>
+          <t>3000000188439</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -1432,7 +1432,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>3000000032947</t>
+          <t>3000000188392</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -1444,250 +1444,1750 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>3000000169544</t>
+          <t>3000000188453</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2,45</t>
+          <t>2,43</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>3000000016107</t>
+          <t>3000000188385</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>1,46</t>
+          <t>2,43</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>3000000015971</t>
+          <t>3000000032855</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>1,46</t>
+          <t>2,43</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>3000000055977</t>
+          <t>3000000032848</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>1,84</t>
+          <t>2,43</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>6934913083208</t>
+          <t>3000000032862</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>4,4</t>
+          <t>2,43</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>6934913069257</t>
+          <t>3000000169520</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>4,8</t>
+          <t>2,45</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>3000000060353</t>
+          <t>3000000023747</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>8,65</t>
+          <t>1,46</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>3000000090824</t>
+          <t>3708510088316</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>13,65</t>
+          <t>1,46</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>3000000080887</t>
+          <t>3000000055656</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>7,65</t>
+          <t>1,84</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>3000000088401</t>
+          <t>6934913093009</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>10,65</t>
+          <t>3,8</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>3000000177815</t>
+          <t>6934913072950</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>7,65</t>
+          <t>4,8</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>3000000190104</t>
+          <t>3000000060353</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>9,65</t>
+          <t>8,65</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>3000000016565</t>
+          <t>3000000096260</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>6,75</t>
+          <t>12,65</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>3000000084854</t>
+          <t>3000000080900</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>29,15</t>
+          <t>7,65</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>6971806512360</t>
+          <t>3000000088395</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>35,15</t>
+          <t>9,65</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>6971064236152</t>
+          <t>3000000177792</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>22,4</t>
+          <t>7,65</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>6971064236657</t>
+          <t>3000000190074</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>19,4</t>
+          <t>9,65</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>6971064230495</t>
+          <t>3000000013175</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>24,4</t>
+          <t>6,75</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>6971064230709</t>
+          <t>3000000084854</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>79,4</t>
+          <t>29,15</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>3000000016268</t>
+          <t>6971806512360</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>1,08</t>
+          <t>35,15</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>3000000041543</t>
+          <t>6971064236152</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
+        <is>
+          <t>22,4</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>6971064236657</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>19,4</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>6971064230495</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>24,4</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>6971064230709</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>79,4</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>3000000061411</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>1,08</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>3000000041529</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>1,65</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>3000000160756</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>14,35</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>3000000029749</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>18,25</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>3000000018385</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>35,65</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>3000000020760</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>0,88</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>3000000018880</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>8,35</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>3000000057063</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>1,08</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>3000000020722</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>34,9</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>3000000151211</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>6,73</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>3000000020739</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>1,85</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>3000000045596</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>3,4</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>3000000045954</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>2,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>3000000045671</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>4,35</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>3000000045626</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>3,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>3000000045480</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>1,85</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>3000000045701</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>1,85</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>3000000046012</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>1,65</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>3000000045459</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>3,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>3000000056271</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>1,85</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>3000000045398</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>2,45</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>3000000056301</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>1,65</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>3000000166680</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>2,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>3000000020579</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>2,58</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>3000000021064</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>2,43</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>3000000020784</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>2,65</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>3000000020586</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>2,85</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>3000000020555</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>2,85</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>3000000020562</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>2,65</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>3000000030950</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>48,9</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>3000000030974</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>48,65</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>3000000030998</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>43,9</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>3000000030981</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>43,9</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>3000000030967</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>43,9</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>3000000080177</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>43,9</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>3000000020746</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>1,45</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>3000000037973</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>19,4</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>3000000020753</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>1,08</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>3000000021019</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>1,85</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>3000000021040</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>3,9</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>3000000021026</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>2,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>3000000021057</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>1,85</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>3000000021002</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>1,85</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>3000000021033</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>2,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>3000000055588</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>1,65</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>3000000021972</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>1,45</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>3000000137963</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>0,98</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>3000000022191</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>2,45</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>3000000060476</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>3,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>3000000060582</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>5,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>3000000020791</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>1,45</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>3000000022160</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>1,08</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>3000000020807</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>1,08</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>3000000045978</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>3,43</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>3000000045725</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>3,43</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>3000000046142</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>1,65</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>3000000020777</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>0,95</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>3000000094624</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>0,98</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>3000000039632</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>0,88</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>3000000039656</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>0,88</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>3000000020654</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>0,88</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>3000000020678</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>0,98</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>3000000020692</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>1,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>3000000020661</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>0,88</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>3000000020609</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>0,98</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>3000000020685</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>0,88</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>3000000078082</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>1,08</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>3000000137505</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>2,45</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>3000000039397</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>7,65</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>3000000039373</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>7,65</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>3000000039380</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>7,65</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>3000000039403</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>6,65</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>3000000039366</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>7,65</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>3000000052624</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>7,65</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>3000000084083</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>26,65</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>3000000058152</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>2,25</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>3708077031503</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>1,45</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>6971064232024</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>11,65</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>6971064234028</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>12,65</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>3000000196854</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>2,85</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>3000000196861</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>2,85</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>3000000196878</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>2,85</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>3000000196885</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>2,85</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>3000000196892</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>2,85</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>3000000196908</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>2,85</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>3000000196915</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>2,85</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>3000000140703</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>2,45</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>3000000140697</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>2,45</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>3000000140710</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>2,45</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>3000000188613</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>2,43</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>3000000188651</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>2,43</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>3000000188637</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>2,43</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>3000000188644</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>2,43</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>3000000188668</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>2,43</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>3000000188682</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>2,43</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>3000000188743</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>2,43</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>3000000188767</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>2,43</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>3000000188798</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>2,43</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>3000000188811</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>2,43</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>3000000188552</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>2,43</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>3000000188835</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>2,43</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>3000000188569</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>2,43</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>3000000188590</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>2,43</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>3000000169537</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>2,45</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>3000000016091</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>1,46</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>3000000015964</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>1,46</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>3000000055953</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>1,84</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>6934913084243</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>3,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>6934913083222</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>3,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>6934913069202</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>4,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>3000000090831</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>12,65</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>3000000080894</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>7,65</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>3000000088388</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>9,65</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>3000000177808</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>7,65</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>3000000190098</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>9,65</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>3000000016558</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>6,75</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>3000000084854</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>29,15</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>6971806512360</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>35,15</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>6971064236152</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>22,4</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>3000000016251</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>1,08</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>3000000041536</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>1,85</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>3000000016589</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
         <is>
           <t>1,85</t>
         </is>
